--- a/Clientes.xlsx
+++ b/Clientes.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,6 +448,39 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>larissa</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>345435</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Ferminino</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>japiim</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">algo
+</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Clientes.xlsx
+++ b/Clientes.xlsx
@@ -434,10 +434,15 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
+          <t>Idade</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
           <t>Genero</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>Enderco</t>
         </is>
@@ -456,12 +461,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>345435</t>
+          <t>231213424</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>12</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -471,12 +476,12 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>japiim</t>
+          <t>abc</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t xml:space="preserve">algo
+          <t xml:space="preserve">ola pessoal
 </t>
         </is>
       </c>
